--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>DATA_HORA_ANALISE</t>
   </si>
@@ -25,25 +25,25 @@
     <t>TOTAL SKU COM VENDA ACIMA DE 1 ANO</t>
   </si>
   <si>
-    <t>% SKU COM VENDA ACIMA DE 1 ANO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU COM VENDA SOMENTE NO ÚLTIMO ANO</t>
-  </si>
-  <si>
-    <t>% SKU COM VENDA SOMENTE NO ÚLTIMO ANO</t>
+    <t>%SKU COM VENDA ACIMA DE 1 ANO</t>
+  </si>
+  <si>
+    <t>TOTAL SKU COM VENDA SOMENTE NO ULTIMO ANO</t>
+  </si>
+  <si>
+    <t>%SKU COM VENDA SOMENTE NO ULTIMO ANO</t>
   </si>
   <si>
     <t>TOTAL SKU COM ESTOQUE ZERO</t>
   </si>
   <si>
-    <t>% SKU COM ESTOQUE ZERO</t>
+    <t>%SKU COM ESTOQUE ZERO</t>
   </si>
   <si>
     <t>TOTAL SKU COM ESTOQUE POSITIVO</t>
   </si>
   <si>
-    <t>% SKU COM ESTOQUE POSITIVO</t>
+    <t>%SKU COM ESTOQUE POSITIVO</t>
   </si>
   <si>
     <t>CUSTO TOTAL ESTOQUE POSITIVO</t>
@@ -52,55 +52,55 @@
     <t>TOTAL SKU COM ESTOQUE NEGATIVO</t>
   </si>
   <si>
-    <t>% SKU COM ESTOQUE NEGATIVO</t>
+    <t>%SKU COM ESTOQUE NEGATIVO</t>
   </si>
   <si>
     <t>CUSTO TOTAL ESTOQUE NEGATIVO</t>
   </si>
   <si>
-    <t>TOTAL SKU inativo com Saldo</t>
-  </si>
-  <si>
-    <t>% SKU INATIVO COM SALDO</t>
+    <t>TOTAL SKU INATIVO COM SALDO</t>
+  </si>
+  <si>
+    <t>%SKU INATIVO COM SALDO</t>
   </si>
   <si>
     <t>CUSTO TOTAL INATIVO COM SALDO</t>
   </si>
   <si>
-    <t>TOTAL SKU Inativo sem Saldo</t>
-  </si>
-  <si>
-    <t>% SKU INATIVO SEM SALDO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU Ativo com Saldo</t>
-  </si>
-  <si>
-    <t>% SKU ATIVO COM SALDO</t>
+    <t>TOTAL SKU INATIVO SEM SALDO</t>
+  </si>
+  <si>
+    <t>%SKU INATIVO SEM SALDO</t>
+  </si>
+  <si>
+    <t>TOTAL SKU ATIVO COM SALDO</t>
+  </si>
+  <si>
+    <t>%SKU ATIVO COM SALDO</t>
   </si>
   <si>
     <t>CUSTO TOTAL ATIVO COM SALDO</t>
   </si>
   <si>
-    <t>TOTAL SKU Ativo sem Saldo</t>
-  </si>
-  <si>
-    <t>% SKU ATIVO SEM SALDO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU SEM VENDA com Saldo</t>
-  </si>
-  <si>
-    <t>% SKU SEM VENDA COM SALDO</t>
+    <t>TOTAL SKU ATIVO SEM SALDO</t>
+  </si>
+  <si>
+    <t>%SKU ATIVO SEM SALDO</t>
+  </si>
+  <si>
+    <t>TOTAL SKU SEM VENDA COM SALDO</t>
+  </si>
+  <si>
+    <t>%SKU SEM VENDA COM SALDO</t>
   </si>
   <si>
     <t>CUSTO TOTAL SEM VENDA COM SALDO</t>
   </si>
   <si>
-    <t>TOTAL SKU SEM VENDA sem Saldo</t>
-  </si>
-  <si>
-    <t>% SKU SEM VENDA SEM SALDO</t>
+    <t>TOTAL SKU SEM VENDA SEM SALDO</t>
+  </si>
+  <si>
+    <t>%SKU SEM VENDA SEM SALDO</t>
   </si>
   <si>
     <t>TOTAL SKU GRUPO A</t>
@@ -112,13 +112,13 @@
     <t>TOTAL SKU GRUPO C</t>
   </si>
   <si>
-    <t>% SKU GRUPO A</t>
+    <t>%SKU GRUPO A</t>
   </si>
   <si>
     <t>%SKU GRUPO B</t>
   </si>
   <si>
-    <t>% SKU GRUPO C</t>
+    <t>%SKU GRUPO C</t>
   </si>
   <si>
     <t>TOTAL VENDA GRUPO A</t>
@@ -130,16 +130,13 @@
     <t>TOTAL VENDA GRUPO C</t>
   </si>
   <si>
-    <t>% VENDA GRUPO A</t>
-  </si>
-  <si>
-    <t>% VENDA GRUPO B</t>
-  </si>
-  <si>
-    <t>% VENDA GRUPO C</t>
-  </si>
-  <si>
-    <t>COBERTURA EM DIAS</t>
+    <t>%VENDA GRUPO A</t>
+  </si>
+  <si>
+    <t>%VENDA GRUPO B</t>
+  </si>
+  <si>
+    <t>%VENDA GRUPO C</t>
   </si>
   <si>
     <t>COBERTURA EM DIAS GRUPO A</t>
@@ -151,7 +148,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-08 15:47:00</t>
+    <t>2025-05-09 18:54:59</t>
   </si>
 </sst>
 </file>
@@ -509,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -648,145 +645,139 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
       <c r="B2">
-        <v>1004</v>
+        <v>16142</v>
       </c>
       <c r="C2">
-        <v>447</v>
+        <v>11643</v>
       </c>
       <c r="D2">
-        <v>44.52191235059761</v>
+        <v>72.12860859868667</v>
       </c>
       <c r="E2">
-        <v>535</v>
+        <v>2277</v>
       </c>
       <c r="F2">
-        <v>53.28685258964143</v>
+        <v>14.10605872878206</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>3094</v>
       </c>
       <c r="H2">
-        <v>8.964143426294822</v>
+        <v>19.1673894189072</v>
       </c>
       <c r="I2">
-        <v>640</v>
+        <v>9526</v>
       </c>
       <c r="J2">
-        <v>63.74501992031873</v>
+        <v>59.01375294263412</v>
       </c>
       <c r="K2">
-        <v>14134</v>
+        <v>3036032.85</v>
       </c>
       <c r="L2">
-        <v>274</v>
+        <v>3522</v>
       </c>
       <c r="M2">
-        <v>27.29083665338645</v>
+        <v>21.81885763845868</v>
       </c>
       <c r="N2">
-        <v>5622</v>
+        <v>1072804.73</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>4623</v>
       </c>
       <c r="P2">
-        <v>0.298804780876494</v>
+        <v>28.63957378267873</v>
       </c>
       <c r="Q2">
-        <v>40</v>
+        <v>473467.8999999999</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>3502</v>
       </c>
       <c r="S2">
-        <v>0.099601593625498</v>
+        <v>21.69495725436749</v>
       </c>
       <c r="T2">
-        <v>619</v>
+        <v>3484</v>
       </c>
       <c r="U2">
-        <v>61.65338645418327</v>
+        <v>21.58344690868542</v>
       </c>
       <c r="V2">
-        <v>13970</v>
+        <v>2422321.85</v>
       </c>
       <c r="W2">
-        <v>359</v>
+        <v>2311</v>
       </c>
       <c r="X2">
-        <v>35.75697211155379</v>
+        <v>14.31668938173708</v>
       </c>
       <c r="Y2">
-        <v>18</v>
+        <v>1419</v>
       </c>
       <c r="Z2">
-        <v>1.792828685258964</v>
+        <v>8.790732251269979</v>
       </c>
       <c r="AA2">
-        <v>124</v>
+        <v>140243.1</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>803</v>
       </c>
       <c r="AC2">
-        <v>0.398406374501992</v>
+        <v>4.974600421261306</v>
       </c>
       <c r="AD2">
-        <v>238</v>
+        <v>463</v>
       </c>
       <c r="AE2">
-        <v>294</v>
+        <v>878</v>
       </c>
       <c r="AF2">
-        <v>426</v>
+        <v>1389</v>
       </c>
       <c r="AG2">
-        <v>23.70517928286853</v>
+        <v>16.95970695970696</v>
       </c>
       <c r="AH2">
-        <v>29.28286852589641</v>
+        <v>32.16117216117216</v>
       </c>
       <c r="AI2">
-        <v>42.43027888446215</v>
+        <v>50.87912087912088</v>
       </c>
       <c r="AJ2">
-        <v>731895.1399999999</v>
+        <v>1422342.64</v>
       </c>
       <c r="AK2">
-        <v>137239.85</v>
+        <v>266803.27</v>
       </c>
       <c r="AL2">
-        <v>45864.07</v>
+        <v>89026.19</v>
       </c>
       <c r="AM2">
-        <v>79.98862206481392</v>
+        <v>79.98903143289674</v>
       </c>
       <c r="AN2">
-        <v>14.99890611909482</v>
+        <v>15.00435587758913</v>
       </c>
       <c r="AO2">
-        <v>5.012471816091265</v>
+        <v>5.006612689514137</v>
       </c>
       <c r="AP2">
-        <v>376.4790414264245</v>
+        <v>47.69122524876872</v>
       </c>
       <c r="AQ2">
-        <v>99.94312760960767</v>
+        <v>224.0439682246444</v>
       </c>
       <c r="AR2">
-        <v>163.5770236308493</v>
-      </c>
-      <c r="AS2">
-        <v>707.4191019122585</v>
+        <v>568.357470858354</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -148,7 +148,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-09 18:54:59</t>
+    <t>2025-05-13 15:59:34</t>
   </si>
 </sst>
 </file>
@@ -651,133 +651,133 @@
         <v>44</v>
       </c>
       <c r="B2">
-        <v>16142</v>
+        <v>16150</v>
       </c>
       <c r="C2">
-        <v>11643</v>
+        <v>11659</v>
       </c>
       <c r="D2">
-        <v>72.12860859868667</v>
+        <v>72.19195046439629</v>
       </c>
       <c r="E2">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="F2">
-        <v>14.10605872878206</v>
+        <v>14.11764705882353</v>
       </c>
       <c r="G2">
-        <v>3094</v>
+        <v>3096</v>
       </c>
       <c r="H2">
-        <v>19.1673894189072</v>
+        <v>19.1702786377709</v>
       </c>
       <c r="I2">
-        <v>9526</v>
+        <v>9527</v>
       </c>
       <c r="J2">
-        <v>59.01375294263412</v>
+        <v>58.99071207430341</v>
       </c>
       <c r="K2">
-        <v>3036032.85</v>
+        <v>3044987.56</v>
       </c>
       <c r="L2">
-        <v>3522</v>
+        <v>3527</v>
       </c>
       <c r="M2">
-        <v>21.81885763845868</v>
+        <v>21.83900928792569</v>
       </c>
       <c r="N2">
-        <v>1072804.73</v>
+        <v>1081584.63</v>
       </c>
       <c r="O2">
-        <v>4623</v>
+        <v>4644</v>
       </c>
       <c r="P2">
-        <v>28.63957378267873</v>
+        <v>28.75541795665635</v>
       </c>
       <c r="Q2">
-        <v>473467.8999999999</v>
+        <v>481281.6</v>
       </c>
       <c r="R2">
-        <v>3502</v>
+        <v>3518</v>
       </c>
       <c r="S2">
-        <v>21.69495725436749</v>
+        <v>21.78328173374613</v>
       </c>
       <c r="T2">
-        <v>3484</v>
+        <v>3475</v>
       </c>
       <c r="U2">
-        <v>21.58344690868542</v>
+        <v>21.51702786377709</v>
       </c>
       <c r="V2">
-        <v>2422321.85</v>
+        <v>2428604.86</v>
       </c>
       <c r="W2">
-        <v>2311</v>
+        <v>2302</v>
       </c>
       <c r="X2">
-        <v>14.31668938173708</v>
+        <v>14.25386996904025</v>
       </c>
       <c r="Y2">
-        <v>1419</v>
+        <v>1408</v>
       </c>
       <c r="Z2">
-        <v>8.790732251269979</v>
+        <v>8.718266253869968</v>
       </c>
       <c r="AA2">
-        <v>140243.1</v>
+        <v>135101.1</v>
       </c>
       <c r="AB2">
         <v>803</v>
       </c>
       <c r="AC2">
-        <v>4.974600421261306</v>
+        <v>4.972136222910216</v>
       </c>
       <c r="AD2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AE2">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="AF2">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="AG2">
-        <v>16.95970695970696</v>
+        <v>16.77704194260486</v>
       </c>
       <c r="AH2">
-        <v>32.16117216117216</v>
+        <v>32.04562178072112</v>
       </c>
       <c r="AI2">
-        <v>50.87912087912088</v>
+        <v>51.17733627667403</v>
       </c>
       <c r="AJ2">
-        <v>1422342.64</v>
+        <v>1423477.08</v>
       </c>
       <c r="AK2">
-        <v>266803.27</v>
+        <v>267238.87</v>
       </c>
       <c r="AL2">
-        <v>89026.19</v>
+        <v>88992.39</v>
       </c>
       <c r="AM2">
-        <v>79.98903143289674</v>
+        <v>79.98372812030537</v>
       </c>
       <c r="AN2">
-        <v>15.00435587758913</v>
+        <v>15.01588007392268</v>
       </c>
       <c r="AO2">
-        <v>5.006612689514137</v>
+        <v>5.00039180577195</v>
       </c>
       <c r="AP2">
-        <v>47.69122524876872</v>
+        <v>46.56639839034205</v>
       </c>
       <c r="AQ2">
-        <v>224.0439682246444</v>
+        <v>207.1931755641167</v>
       </c>
       <c r="AR2">
-        <v>568.357470858354</v>
+        <v>574.3230983949755</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>DATA_HORA_ANALISE</t>
   </si>
@@ -103,6 +103,21 @@
     <t>%SKU SEM VENDA SEM SALDO</t>
   </si>
   <si>
+    <t>TOTAL SKUs VERIFICADOS</t>
+  </si>
+  <si>
+    <t>TOTAL SKUs CONSISTENTES</t>
+  </si>
+  <si>
+    <t>%SKUs CONSISTENTES</t>
+  </si>
+  <si>
+    <t>TOTAL SKUs INCONSISTENTES</t>
+  </si>
+  <si>
+    <t>%SKUs INCONSISTENTES</t>
+  </si>
+  <si>
     <t>TOTAL SKU GRUPO A</t>
   </si>
   <si>
@@ -148,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-13 15:59:34</t>
+    <t>2025-05-14 11:03:59</t>
   </si>
 </sst>
 </file>
@@ -506,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:49">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,139 +660,169 @@
       <c r="AR1" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:49">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>16150</v>
+        <v>16151</v>
       </c>
       <c r="C2">
-        <v>11659</v>
+        <v>11663</v>
       </c>
       <c r="D2">
-        <v>72.19195046439629</v>
+        <v>72.21224691969537</v>
       </c>
       <c r="E2">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="F2">
-        <v>14.11764705882353</v>
+        <v>14.10438982106371</v>
       </c>
       <c r="G2">
-        <v>3096</v>
+        <v>3099</v>
       </c>
       <c r="H2">
-        <v>19.1702786377709</v>
+        <v>19.18766639836543</v>
       </c>
       <c r="I2">
-        <v>9527</v>
+        <v>9524</v>
       </c>
       <c r="J2">
-        <v>58.99071207430341</v>
+        <v>58.96848492353415</v>
       </c>
       <c r="K2">
-        <v>3044987.56</v>
+        <v>3042558.26</v>
       </c>
       <c r="L2">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="M2">
-        <v>21.83900928792569</v>
+        <v>21.84384867810043</v>
       </c>
       <c r="N2">
-        <v>1081584.63</v>
+        <v>1101515.63</v>
       </c>
       <c r="O2">
-        <v>4644</v>
+        <v>4648</v>
       </c>
       <c r="P2">
-        <v>28.75541795665635</v>
+        <v>28.77840381400533</v>
       </c>
       <c r="Q2">
-        <v>481281.6</v>
+        <v>482277.6</v>
       </c>
       <c r="R2">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="S2">
-        <v>21.78328173374613</v>
+        <v>21.78812457432976</v>
       </c>
       <c r="T2">
-        <v>3475</v>
+        <v>3468</v>
       </c>
       <c r="U2">
-        <v>21.51702786377709</v>
+        <v>21.47235465296266</v>
       </c>
       <c r="V2">
-        <v>2428604.86</v>
+        <v>2425841.56</v>
       </c>
       <c r="W2">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="X2">
-        <v>14.25386996904025</v>
+        <v>14.27775369946133</v>
       </c>
       <c r="Y2">
         <v>1408</v>
       </c>
       <c r="Z2">
-        <v>8.718266253869968</v>
+        <v>8.717726456566156</v>
       </c>
       <c r="AA2">
-        <v>135101.1</v>
+        <v>134439.1</v>
       </c>
       <c r="AB2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AC2">
-        <v>4.972136222910216</v>
+        <v>4.965636802674757</v>
       </c>
       <c r="AD2">
-        <v>456</v>
+        <v>16163</v>
       </c>
       <c r="AE2">
-        <v>871</v>
+        <v>10589</v>
       </c>
       <c r="AF2">
-        <v>1391</v>
+        <v>65.5138278784879</v>
       </c>
       <c r="AG2">
-        <v>16.77704194260486</v>
+        <v>5574</v>
       </c>
       <c r="AH2">
-        <v>32.04562178072112</v>
+        <v>34.4861721215121</v>
       </c>
       <c r="AI2">
-        <v>51.17733627667403</v>
+        <v>457</v>
       </c>
       <c r="AJ2">
-        <v>1423477.08</v>
+        <v>870</v>
       </c>
       <c r="AK2">
-        <v>267238.87</v>
+        <v>1392</v>
       </c>
       <c r="AL2">
-        <v>88992.39</v>
+        <v>16.8076498712762</v>
       </c>
       <c r="AM2">
-        <v>79.98372812030537</v>
+        <v>31.99705774181684</v>
       </c>
       <c r="AN2">
-        <v>15.01588007392268</v>
+        <v>51.19529238690696</v>
       </c>
       <c r="AO2">
-        <v>5.00039180577195</v>
+        <v>1424447.37</v>
       </c>
       <c r="AP2">
-        <v>46.56639839034205</v>
+        <v>267435.48</v>
       </c>
       <c r="AQ2">
-        <v>207.1931755641167</v>
+        <v>89098.85000000001</v>
       </c>
       <c r="AR2">
-        <v>574.3230983949755</v>
+        <v>79.9810222642939</v>
+      </c>
+      <c r="AS2">
+        <v>15.0161834902627</v>
+      </c>
+      <c r="AT2">
+        <v>5.002794245443398</v>
+      </c>
+      <c r="AU2">
+        <v>44.60963206700568</v>
+      </c>
+      <c r="AV2">
+        <v>210.5537459283388</v>
+      </c>
+      <c r="AW2">
+        <v>563.4796348314607</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -22,16 +22,16 @@
     <t>TOTAL DE SKUs</t>
   </si>
   <si>
-    <t>TOTAL SKU COM VENDA ACIMA DE 1 ANO</t>
-  </si>
-  <si>
-    <t>%SKU COM VENDA ACIMA DE 1 ANO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU COM VENDA SOMENTE NO ULTIMO ANO</t>
-  </si>
-  <si>
-    <t>%SKU COM VENDA SOMENTE NO ULTIMO ANO</t>
+    <t>TOTAL SKU COM HISTORICO &gt; 1 ANO</t>
+  </si>
+  <si>
+    <t>%SKU COM COM HISTORICO &gt; 1 ANO</t>
+  </si>
+  <si>
+    <t>TOTAL SKU COM HISTORICO &lt; 1 ANO</t>
+  </si>
+  <si>
+    <t>%SKU COM HISTORICO &lt; 1 ANO</t>
   </si>
   <si>
     <t>TOTAL SKU COM ESTOQUE ZERO</t>
@@ -58,64 +58,64 @@
     <t>CUSTO TOTAL ESTOQUE NEGATIVO</t>
   </si>
   <si>
-    <t>TOTAL SKU INATIVO COM SALDO</t>
-  </si>
-  <si>
-    <t>%SKU INATIVO COM SALDO</t>
-  </si>
-  <si>
-    <t>CUSTO TOTAL INATIVO COM SALDO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU INATIVO SEM SALDO</t>
-  </si>
-  <si>
-    <t>%SKU INATIVO SEM SALDO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU ATIVO COM SALDO</t>
-  </si>
-  <si>
-    <t>%SKU ATIVO COM SALDO</t>
-  </si>
-  <si>
-    <t>CUSTO TOTAL ATIVO COM SALDO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU ATIVO SEM SALDO</t>
-  </si>
-  <si>
-    <t>%SKU ATIVO SEM SALDO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU SEM VENDA COM SALDO</t>
-  </si>
-  <si>
-    <t>%SKU SEM VENDA COM SALDO</t>
-  </si>
-  <si>
-    <t>CUSTO TOTAL SEM VENDA COM SALDO</t>
-  </si>
-  <si>
-    <t>TOTAL SKU SEM VENDA SEM SALDO</t>
-  </si>
-  <si>
-    <t>%SKU SEM VENDA SEM SALDO</t>
-  </si>
-  <si>
-    <t>TOTAL SKUs VERIFICADOS</t>
-  </si>
-  <si>
-    <t>TOTAL SKUs CONSISTENTES</t>
-  </si>
-  <si>
-    <t>%SKUs CONSISTENTES</t>
-  </si>
-  <si>
-    <t>TOTAL SKUs INCONSISTENTES</t>
-  </si>
-  <si>
-    <t>%SKUs INCONSISTENTES</t>
+    <t>TOTAL SKU INATIVO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>%SKU INATIVO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>CUSTO TOTAL INATIVO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>TOTAL SKU INATIVO (ESTOQUE &lt;= 0)</t>
+  </si>
+  <si>
+    <t>%SKU INATIVO (ESTOQUE &lt;= 0)</t>
+  </si>
+  <si>
+    <t>TOTAL SKU ATIVO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>%SKU ATIVO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>CUSTO TOTAL ATIVO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>TOTAL SKU ATIVO (ESTOQUE &lt;= 0)</t>
+  </si>
+  <si>
+    <t>%SKU ATIVO (ESTOQUE &lt;= 0)</t>
+  </si>
+  <si>
+    <t>TOTAL SKU NAO COMERCIALIZADO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>%SKU NAO COMERCIALIZADO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>CUSTO TOTAL NAO COMERCIALIZADO (ESTOQUE &gt; 0)</t>
+  </si>
+  <si>
+    <t>TOTAL SKU NAO COMERCIALIZADO (ESTOQUE &lt;= 0)</t>
+  </si>
+  <si>
+    <t>%SKU NAO COMERCIALIZADO (ESTOQUE &lt;= 0)</t>
+  </si>
+  <si>
+    <t>TOTAL SKU VERIFICADOS</t>
+  </si>
+  <si>
+    <t>TOTAL SKU CONSISTENTES</t>
+  </si>
+  <si>
+    <t>%SKU CONSISTENTES</t>
+  </si>
+  <si>
+    <t>TOTAL SKU INCONSISTENTES</t>
+  </si>
+  <si>
+    <t>%SKU INCONSISTENTES</t>
   </si>
   <si>
     <t>TOTAL SKU GRUPO A</t>
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-14 11:03:59</t>
+    <t>2025-05-14 14:32:31</t>
   </si>
 </sst>
 </file>
@@ -684,16 +684,16 @@
         <v>16151</v>
       </c>
       <c r="C2">
-        <v>11663</v>
+        <v>11664</v>
       </c>
       <c r="D2">
-        <v>72.21224691969537</v>
+        <v>72.218438486781</v>
       </c>
       <c r="E2">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="F2">
-        <v>14.10438982106371</v>
+        <v>14.09819825397808</v>
       </c>
       <c r="G2">
         <v>3099</v>
@@ -729,10 +729,10 @@
         <v>482277.6</v>
       </c>
       <c r="R2">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="S2">
-        <v>21.78812457432976</v>
+        <v>21.79431614141539</v>
       </c>
       <c r="T2">
         <v>3468</v>
@@ -744,10 +744,10 @@
         <v>2425841.56</v>
       </c>
       <c r="W2">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="X2">
-        <v>14.27775369946133</v>
+        <v>14.2715621323757</v>
       </c>
       <c r="Y2">
         <v>1408</v>
@@ -780,49 +780,49 @@
         <v>34.4861721215121</v>
       </c>
       <c r="AI2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ2">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AK2">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="AL2">
-        <v>16.8076498712762</v>
+        <v>16.79558011049724</v>
       </c>
       <c r="AM2">
-        <v>31.99705774181684</v>
+        <v>32.00736648250461</v>
       </c>
       <c r="AN2">
-        <v>51.19529238690696</v>
+        <v>51.19705340699816</v>
       </c>
       <c r="AO2">
-        <v>1424447.37</v>
+        <v>1421923.25</v>
       </c>
       <c r="AP2">
-        <v>267435.48</v>
+        <v>266876.46</v>
       </c>
       <c r="AQ2">
-        <v>89098.85000000001</v>
+        <v>88904.47</v>
       </c>
       <c r="AR2">
-        <v>79.9810222642939</v>
+        <v>79.98649415337484</v>
       </c>
       <c r="AS2">
-        <v>15.0161834902627</v>
+        <v>15.01242237052061</v>
       </c>
       <c r="AT2">
-        <v>5.002794245443398</v>
+        <v>5.001083476104556</v>
       </c>
       <c r="AU2">
-        <v>44.60963206700568</v>
+        <v>44.79682953747366</v>
       </c>
       <c r="AV2">
-        <v>210.5537459283388</v>
+        <v>207.5719717544813</v>
       </c>
       <c r="AW2">
-        <v>563.4796348314607</v>
+        <v>567.1548998946259</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-14 11:03:59</t>
+    <t>2025-05-15 16:38:46</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16151</v>
+        <v>16158</v>
       </c>
       <c r="C2">
-        <v>11663</v>
+        <v>11674</v>
       </c>
       <c r="D2">
-        <v>72.21224691969537</v>
+        <v>72.24904072286174</v>
       </c>
       <c r="E2">
-        <v>2278</v>
+        <v>2270</v>
       </c>
       <c r="F2">
-        <v>14.10438982106371</v>
+        <v>14.04876841193217</v>
       </c>
       <c r="G2">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="H2">
-        <v>19.18766639836543</v>
+        <v>19.18554276519371</v>
       </c>
       <c r="I2">
-        <v>9524</v>
+        <v>9527</v>
       </c>
       <c r="J2">
-        <v>58.96848492353415</v>
+        <v>58.96150513677435</v>
       </c>
       <c r="K2">
-        <v>3042558.26</v>
+        <v>3047200.36</v>
       </c>
       <c r="L2">
-        <v>3528</v>
+        <v>3531</v>
       </c>
       <c r="M2">
-        <v>21.84384867810043</v>
+        <v>21.85295209803193</v>
       </c>
       <c r="N2">
-        <v>1101515.63</v>
+        <v>1103618.63</v>
       </c>
       <c r="O2">
-        <v>4648</v>
+        <v>4655</v>
       </c>
       <c r="P2">
-        <v>28.77840381400533</v>
+        <v>28.80925857160539</v>
       </c>
       <c r="Q2">
-        <v>482277.6</v>
+        <v>483271.5</v>
       </c>
       <c r="R2">
-        <v>3519</v>
+        <v>3525</v>
       </c>
       <c r="S2">
-        <v>21.78812457432976</v>
+        <v>21.81581878945414</v>
       </c>
       <c r="T2">
-        <v>3468</v>
+        <v>3463</v>
       </c>
       <c r="U2">
-        <v>21.47235465296266</v>
+        <v>21.43210793415027</v>
       </c>
       <c r="V2">
-        <v>2425841.56</v>
+        <v>2427833.76</v>
       </c>
       <c r="W2">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="X2">
-        <v>14.27775369946133</v>
+        <v>14.24062383958411</v>
       </c>
       <c r="Y2">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="Z2">
-        <v>8.717726456566156</v>
+        <v>8.72013863101869</v>
       </c>
       <c r="AA2">
-        <v>134439.1</v>
+        <v>136095.1</v>
       </c>
       <c r="AB2">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="AC2">
-        <v>4.965636802674757</v>
+        <v>4.9820522341874</v>
       </c>
       <c r="AD2">
-        <v>16163</v>
+        <v>16170</v>
       </c>
       <c r="AE2">
-        <v>10589</v>
+        <v>10584</v>
       </c>
       <c r="AF2">
-        <v>65.5138278784879</v>
+        <v>65.45454545454545</v>
       </c>
       <c r="AG2">
-        <v>5574</v>
+        <v>5586</v>
       </c>
       <c r="AH2">
-        <v>34.4861721215121</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="AI2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AJ2">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="AK2">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="AL2">
-        <v>16.8076498712762</v>
+        <v>16.85767097966728</v>
       </c>
       <c r="AM2">
-        <v>31.99705774181684</v>
+        <v>31.94085027726433</v>
       </c>
       <c r="AN2">
-        <v>51.19529238690696</v>
+        <v>51.20147874306839</v>
       </c>
       <c r="AO2">
-        <v>1424447.37</v>
+        <v>1417002.35</v>
       </c>
       <c r="AP2">
-        <v>267435.48</v>
+        <v>265873.3099999999</v>
       </c>
       <c r="AQ2">
-        <v>89098.85000000001</v>
+        <v>88636.87</v>
       </c>
       <c r="AR2">
-        <v>79.9810222642939</v>
+        <v>79.98827702336375</v>
       </c>
       <c r="AS2">
-        <v>15.0161834902627</v>
+        <v>15.00826584613544</v>
       </c>
       <c r="AT2">
-        <v>5.002794245443398</v>
+        <v>5.003457130500792</v>
       </c>
       <c r="AU2">
-        <v>44.60963206700568</v>
+        <v>45.78598674964866</v>
       </c>
       <c r="AV2">
-        <v>210.5537459283388</v>
+        <v>214.313832695462</v>
       </c>
       <c r="AW2">
-        <v>563.4796348314607</v>
+        <v>559.8246229393195</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-15 16:38:46</t>
+    <t>2025-05-20 11:30:40</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16158</v>
+        <v>16189</v>
       </c>
       <c r="C2">
-        <v>11674</v>
+        <v>11711</v>
       </c>
       <c r="D2">
-        <v>72.24904072286174</v>
+        <v>72.33924269565755</v>
       </c>
       <c r="E2">
-        <v>2270</v>
+        <v>2253</v>
       </c>
       <c r="F2">
-        <v>14.04876841193217</v>
+        <v>13.91685712520848</v>
       </c>
       <c r="G2">
-        <v>3100</v>
+        <v>3108</v>
       </c>
       <c r="H2">
-        <v>19.18554276519371</v>
+        <v>19.19822101426895</v>
       </c>
       <c r="I2">
-        <v>9527</v>
+        <v>9536</v>
       </c>
       <c r="J2">
-        <v>58.96150513677435</v>
+        <v>58.9041942059423</v>
       </c>
       <c r="K2">
-        <v>3047200.36</v>
+        <v>3061856.66</v>
       </c>
       <c r="L2">
-        <v>3531</v>
+        <v>3545</v>
       </c>
       <c r="M2">
-        <v>21.85295209803193</v>
+        <v>21.89758477978874</v>
       </c>
       <c r="N2">
-        <v>1103618.63</v>
+        <v>1126722.53</v>
       </c>
       <c r="O2">
-        <v>4655</v>
+        <v>4670</v>
       </c>
       <c r="P2">
-        <v>28.80925857160539</v>
+        <v>28.84674779171042</v>
       </c>
       <c r="Q2">
-        <v>483271.5</v>
+        <v>487244.1</v>
       </c>
       <c r="R2">
-        <v>3525</v>
+        <v>3535</v>
       </c>
       <c r="S2">
-        <v>21.81581878945414</v>
+        <v>21.835814441905</v>
       </c>
       <c r="T2">
-        <v>3463</v>
+        <v>3447</v>
       </c>
       <c r="U2">
-        <v>21.43210793415027</v>
+        <v>21.29223546852801</v>
       </c>
       <c r="V2">
-        <v>2427833.76</v>
+        <v>2427281.56</v>
       </c>
       <c r="W2">
-        <v>2301</v>
+        <v>2312</v>
       </c>
       <c r="X2">
-        <v>14.24062383958411</v>
+        <v>14.28130211872259</v>
       </c>
       <c r="Y2">
-        <v>1409</v>
+        <v>1419</v>
       </c>
       <c r="Z2">
-        <v>8.72013863101869</v>
+        <v>8.765210945703874</v>
       </c>
       <c r="AA2">
-        <v>136095.1</v>
+        <v>147331</v>
       </c>
       <c r="AB2">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="AC2">
-        <v>4.9820522341874</v>
+        <v>4.978689233430106</v>
       </c>
       <c r="AD2">
-        <v>16170</v>
+        <v>16201</v>
       </c>
       <c r="AE2">
-        <v>10584</v>
+        <v>10583</v>
       </c>
       <c r="AF2">
-        <v>65.45454545454545</v>
+        <v>65.32312820196285</v>
       </c>
       <c r="AG2">
-        <v>5586</v>
+        <v>5618</v>
       </c>
       <c r="AH2">
-        <v>34.54545454545455</v>
+        <v>34.67687179803715</v>
       </c>
       <c r="AI2">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="AJ2">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="AK2">
-        <v>1385</v>
+        <v>1365</v>
       </c>
       <c r="AL2">
-        <v>16.85767097966728</v>
+        <v>17.37037037037037</v>
       </c>
       <c r="AM2">
-        <v>31.94085027726433</v>
+        <v>32.07407407407407</v>
       </c>
       <c r="AN2">
-        <v>51.20147874306839</v>
+        <v>50.55555555555556</v>
       </c>
       <c r="AO2">
-        <v>1417002.35</v>
+        <v>1384948.91</v>
       </c>
       <c r="AP2">
-        <v>265873.3099999999</v>
+        <v>260182.75</v>
       </c>
       <c r="AQ2">
-        <v>88636.87</v>
+        <v>86729.48999999999</v>
       </c>
       <c r="AR2">
-        <v>79.98827702336375</v>
+        <v>79.96881909384017</v>
       </c>
       <c r="AS2">
-        <v>15.00826584613544</v>
+        <v>15.02330310949004</v>
       </c>
       <c r="AT2">
-        <v>5.003457130500792</v>
+        <v>5.007877796669784</v>
       </c>
       <c r="AU2">
-        <v>45.78598674964866</v>
+        <v>43.87274978569388</v>
       </c>
       <c r="AV2">
-        <v>214.313832695462</v>
+        <v>228.6857142857143</v>
       </c>
       <c r="AW2">
-        <v>559.8246229393195</v>
+        <v>562.0827389443652</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-14 14:32:31</t>
+    <t>2025-05-22 15:29:05</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16151</v>
+        <v>16217</v>
       </c>
       <c r="C2">
-        <v>11664</v>
+        <v>11724</v>
       </c>
       <c r="D2">
-        <v>72.218438486781</v>
+        <v>72.29450576555466</v>
       </c>
       <c r="E2">
-        <v>2277</v>
+        <v>2247</v>
       </c>
       <c r="F2">
-        <v>14.09819825397808</v>
+        <v>13.85583030153543</v>
       </c>
       <c r="G2">
-        <v>3099</v>
+        <v>3106</v>
       </c>
       <c r="H2">
-        <v>19.18766639836543</v>
+        <v>19.15274095085404</v>
       </c>
       <c r="I2">
-        <v>9524</v>
+        <v>9561</v>
       </c>
       <c r="J2">
-        <v>58.96848492353415</v>
+        <v>58.95665042856262</v>
       </c>
       <c r="K2">
-        <v>3042558.26</v>
+        <v>3080559.16</v>
       </c>
       <c r="L2">
-        <v>3528</v>
+        <v>3550</v>
       </c>
       <c r="M2">
-        <v>21.84384867810043</v>
+        <v>21.89060862058334</v>
       </c>
       <c r="N2">
-        <v>1101515.63</v>
+        <v>1136656.43</v>
       </c>
       <c r="O2">
-        <v>4648</v>
+        <v>4672</v>
       </c>
       <c r="P2">
-        <v>28.77840381400533</v>
+        <v>28.80927421841278</v>
       </c>
       <c r="Q2">
-        <v>482277.6</v>
+        <v>489961.1</v>
       </c>
       <c r="R2">
-        <v>3520</v>
+        <v>3544</v>
       </c>
       <c r="S2">
-        <v>21.79431614141539</v>
+        <v>21.85361040883024</v>
       </c>
       <c r="T2">
-        <v>3468</v>
+        <v>3449</v>
       </c>
       <c r="U2">
-        <v>21.47235465296266</v>
+        <v>21.26780538940618</v>
       </c>
       <c r="V2">
-        <v>2425841.56</v>
+        <v>2436238.06</v>
       </c>
       <c r="W2">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="X2">
-        <v>14.2715621323757</v>
+        <v>14.2196460504409</v>
       </c>
       <c r="Y2">
-        <v>1408</v>
+        <v>1440</v>
       </c>
       <c r="Z2">
-        <v>8.717726456566156</v>
+        <v>8.879570820743664</v>
       </c>
       <c r="AA2">
-        <v>134439.1</v>
+        <v>154360</v>
       </c>
       <c r="AB2">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="AC2">
-        <v>4.965636802674757</v>
+        <v>4.970093112166245</v>
       </c>
       <c r="AD2">
-        <v>16163</v>
+        <v>16229</v>
       </c>
       <c r="AE2">
-        <v>10589</v>
+        <v>10598</v>
       </c>
       <c r="AF2">
-        <v>65.5138278784879</v>
+        <v>65.30285291761662</v>
       </c>
       <c r="AG2">
-        <v>5574</v>
+        <v>5631</v>
       </c>
       <c r="AH2">
-        <v>34.4861721215121</v>
+        <v>34.69714708238338</v>
       </c>
       <c r="AI2">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="AJ2">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="AK2">
-        <v>1390</v>
+        <v>1366</v>
       </c>
       <c r="AL2">
-        <v>16.79558011049724</v>
+        <v>17.28486646884273</v>
       </c>
       <c r="AM2">
-        <v>32.00736648250461</v>
+        <v>32.04747774480713</v>
       </c>
       <c r="AN2">
-        <v>51.19705340699816</v>
+        <v>50.66765578635015</v>
       </c>
       <c r="AO2">
-        <v>1421923.25</v>
+        <v>1381340.64</v>
       </c>
       <c r="AP2">
-        <v>266876.46</v>
+        <v>259487.28</v>
       </c>
       <c r="AQ2">
-        <v>88904.47</v>
+        <v>86475.97</v>
       </c>
       <c r="AR2">
-        <v>79.98649415337484</v>
+        <v>79.97091004061826</v>
       </c>
       <c r="AS2">
-        <v>15.01242237052061</v>
+        <v>15.02267675666498</v>
       </c>
       <c r="AT2">
-        <v>5.001083476104556</v>
+        <v>5.006413202716749</v>
       </c>
       <c r="AU2">
-        <v>44.79682953747366</v>
+        <v>46.24280782508631</v>
       </c>
       <c r="AV2">
-        <v>207.5719717544813</v>
+        <v>233.1918505942275</v>
       </c>
       <c r="AW2">
-        <v>567.1548998946259</v>
+        <v>558.110151187905</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-22 15:29:05</t>
+    <t>2025-05-22 16:05:34</t>
   </si>
 </sst>
 </file>
@@ -783,46 +783,46 @@
         <v>466</v>
       </c>
       <c r="AJ2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AK2">
         <v>1366</v>
       </c>
       <c r="AL2">
-        <v>17.28486646884273</v>
+        <v>17.29128014842301</v>
       </c>
       <c r="AM2">
-        <v>32.04747774480713</v>
+        <v>32.02226345083488</v>
       </c>
       <c r="AN2">
-        <v>50.66765578635015</v>
+        <v>50.68645640074212</v>
       </c>
       <c r="AO2">
-        <v>1381340.64</v>
+        <v>1380733.44</v>
       </c>
       <c r="AP2">
-        <v>259487.28</v>
+        <v>259056.88</v>
       </c>
       <c r="AQ2">
-        <v>86475.97</v>
+        <v>86350.56999999999</v>
       </c>
       <c r="AR2">
-        <v>79.97091004061826</v>
+        <v>79.98961428924844</v>
       </c>
       <c r="AS2">
-        <v>15.02267675666498</v>
+        <v>15.00786416107668</v>
       </c>
       <c r="AT2">
-        <v>5.006413202716749</v>
+        <v>5.002521549674893</v>
       </c>
       <c r="AU2">
-        <v>46.24280782508631</v>
+        <v>45.68672617333717</v>
       </c>
       <c r="AV2">
-        <v>233.1918505942275</v>
+        <v>234.2342512259525</v>
       </c>
       <c r="AW2">
-        <v>558.110151187905</v>
+        <v>559.3112152902993</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-22 16:05:34</t>
+    <t>2025-05-23 14:03:56</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16217</v>
+        <v>16219</v>
       </c>
       <c r="C2">
-        <v>11724</v>
+        <v>11731</v>
       </c>
       <c r="D2">
-        <v>72.29450576555466</v>
+        <v>72.32875023121031</v>
       </c>
       <c r="E2">
-        <v>2247</v>
+        <v>2254</v>
       </c>
       <c r="F2">
-        <v>13.85583030153543</v>
+        <v>13.89728096676737</v>
       </c>
       <c r="G2">
         <v>3106</v>
       </c>
       <c r="H2">
-        <v>19.15274095085404</v>
+        <v>19.15037918490659</v>
       </c>
       <c r="I2">
-        <v>9561</v>
+        <v>9552</v>
       </c>
       <c r="J2">
-        <v>58.95665042856262</v>
+        <v>58.89388988223688</v>
       </c>
       <c r="K2">
-        <v>3080559.16</v>
+        <v>3075560.17</v>
       </c>
       <c r="L2">
-        <v>3550</v>
+        <v>3561</v>
       </c>
       <c r="M2">
-        <v>21.89060862058334</v>
+        <v>21.95573093285653</v>
       </c>
       <c r="N2">
-        <v>1136656.43</v>
+        <v>1152511.43</v>
       </c>
       <c r="O2">
-        <v>4672</v>
+        <v>4674</v>
       </c>
       <c r="P2">
-        <v>28.80927421841278</v>
+        <v>28.81805290091868</v>
       </c>
       <c r="Q2">
-        <v>489961.1</v>
+        <v>490408.2999999999</v>
       </c>
       <c r="R2">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="S2">
-        <v>21.85361040883024</v>
+        <v>21.85708120106048</v>
       </c>
       <c r="T2">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="U2">
-        <v>21.26780538940618</v>
+        <v>21.25285159380973</v>
       </c>
       <c r="V2">
-        <v>2436238.06</v>
+        <v>2436583.87</v>
       </c>
       <c r="W2">
-        <v>2306</v>
+        <v>2319</v>
       </c>
       <c r="X2">
-        <v>14.2196460504409</v>
+        <v>14.29804550218879</v>
       </c>
       <c r="Y2">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="Z2">
-        <v>8.879570820743664</v>
+        <v>8.822985387508478</v>
       </c>
       <c r="AA2">
-        <v>154360</v>
+        <v>148568</v>
       </c>
       <c r="AB2">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="AC2">
-        <v>4.970093112166245</v>
+        <v>4.950983414513842</v>
       </c>
       <c r="AD2">
-        <v>16229</v>
+        <v>16231</v>
       </c>
       <c r="AE2">
-        <v>10598</v>
+        <v>10610</v>
       </c>
       <c r="AF2">
-        <v>65.30285291761662</v>
+        <v>65.36873883309717</v>
       </c>
       <c r="AG2">
-        <v>5631</v>
+        <v>5621</v>
       </c>
       <c r="AH2">
-        <v>34.69714708238338</v>
+        <v>34.63126116690283</v>
       </c>
       <c r="AI2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="AJ2">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="AK2">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="AL2">
-        <v>17.29128014842301</v>
+        <v>17.38808731039586</v>
       </c>
       <c r="AM2">
-        <v>32.02226345083488</v>
+        <v>32.11246762856086</v>
       </c>
       <c r="AN2">
-        <v>50.68645640074212</v>
+        <v>50.49944506104328</v>
       </c>
       <c r="AO2">
-        <v>1380733.44</v>
+        <v>1375751.25</v>
       </c>
       <c r="AP2">
-        <v>259056.88</v>
+        <v>258284.63</v>
       </c>
       <c r="AQ2">
-        <v>86350.56999999999</v>
+        <v>86070.23</v>
       </c>
       <c r="AR2">
-        <v>79.98961428924844</v>
+        <v>79.98060363845811</v>
       </c>
       <c r="AS2">
-        <v>15.00786416107668</v>
+        <v>15.01562191416203</v>
       </c>
       <c r="AT2">
-        <v>5.002521549674893</v>
+        <v>5.003774447379877</v>
       </c>
       <c r="AU2">
-        <v>45.68672617333717</v>
+        <v>46.96877669165796</v>
       </c>
       <c r="AV2">
-        <v>234.2342512259525</v>
+        <v>241.1653780878748</v>
       </c>
       <c r="AW2">
-        <v>559.3112152902993</v>
+        <v>543.3980938416422</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-23 14:03:56</t>
+    <t>2025-05-25 18:32:19</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16219</v>
+        <v>16229</v>
       </c>
       <c r="C2">
-        <v>11731</v>
+        <v>11751</v>
       </c>
       <c r="D2">
-        <v>72.32875023121031</v>
+        <v>72.40741881816501</v>
       </c>
       <c r="E2">
-        <v>2254</v>
+        <v>2241</v>
       </c>
       <c r="F2">
-        <v>13.89728096676737</v>
+        <v>13.8086142091318</v>
       </c>
       <c r="G2">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="H2">
-        <v>19.15037918490659</v>
+        <v>19.13241727771274</v>
       </c>
       <c r="I2">
-        <v>9552</v>
+        <v>9558</v>
       </c>
       <c r="J2">
-        <v>58.89388988223688</v>
+        <v>58.8945714461766</v>
       </c>
       <c r="K2">
-        <v>3075560.17</v>
+        <v>3074903.87</v>
       </c>
       <c r="L2">
-        <v>3561</v>
+        <v>3566</v>
       </c>
       <c r="M2">
-        <v>21.95573093285653</v>
+        <v>21.97301127611066</v>
       </c>
       <c r="N2">
-        <v>1152511.43</v>
+        <v>1158493.43</v>
       </c>
       <c r="O2">
-        <v>4674</v>
+        <v>4689</v>
       </c>
       <c r="P2">
-        <v>28.81805290091868</v>
+        <v>28.89272290344445</v>
       </c>
       <c r="Q2">
-        <v>490408.2999999999</v>
+        <v>494295.3</v>
       </c>
       <c r="R2">
-        <v>3545</v>
+        <v>3569</v>
       </c>
       <c r="S2">
-        <v>21.85708120106048</v>
+        <v>21.99149670343213</v>
       </c>
       <c r="T2">
-        <v>3447</v>
+        <v>3435</v>
       </c>
       <c r="U2">
-        <v>21.25285159380973</v>
+        <v>21.16581428307351</v>
       </c>
       <c r="V2">
-        <v>2436583.87</v>
+        <v>2427830.57</v>
       </c>
       <c r="W2">
-        <v>2319</v>
+        <v>2299</v>
       </c>
       <c r="X2">
-        <v>14.29804550218879</v>
+        <v>14.16599913734672</v>
       </c>
       <c r="Y2">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="Z2">
-        <v>8.822985387508478</v>
+        <v>8.836034259658636</v>
       </c>
       <c r="AA2">
-        <v>148568</v>
+        <v>152778</v>
       </c>
       <c r="AB2">
         <v>803</v>
       </c>
       <c r="AC2">
-        <v>4.950983414513842</v>
+        <v>4.947932713044549</v>
       </c>
       <c r="AD2">
-        <v>16231</v>
+        <v>16241</v>
       </c>
       <c r="AE2">
-        <v>10610</v>
+        <v>10611</v>
       </c>
       <c r="AF2">
-        <v>65.36873883309717</v>
+        <v>65.33464688134967</v>
       </c>
       <c r="AG2">
-        <v>5621</v>
+        <v>5630</v>
       </c>
       <c r="AH2">
-        <v>34.63126116690283</v>
+        <v>34.66535311865033</v>
       </c>
       <c r="AI2">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="AJ2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AK2">
-        <v>1365</v>
+        <v>1354</v>
       </c>
       <c r="AL2">
-        <v>17.38808731039586</v>
+        <v>17.74731381993331</v>
       </c>
       <c r="AM2">
-        <v>32.11246762856086</v>
+        <v>32.08595776213413</v>
       </c>
       <c r="AN2">
-        <v>50.49944506104328</v>
+        <v>50.16672841793257</v>
       </c>
       <c r="AO2">
-        <v>1375751.25</v>
+        <v>1360191</v>
       </c>
       <c r="AP2">
-        <v>258284.63</v>
+        <v>255433.51</v>
       </c>
       <c r="AQ2">
-        <v>86070.23</v>
+        <v>85168.91</v>
       </c>
       <c r="AR2">
-        <v>79.98060363845811</v>
+        <v>79.97391005898884</v>
       </c>
       <c r="AS2">
-        <v>15.01562191416203</v>
+        <v>15.01849119336316</v>
       </c>
       <c r="AT2">
-        <v>5.003774447379877</v>
+        <v>5.007598747648025</v>
       </c>
       <c r="AU2">
-        <v>46.96877669165796</v>
+        <v>49.75165717486696</v>
       </c>
       <c r="AV2">
-        <v>241.1653780878748</v>
+        <v>239.0586868099942</v>
       </c>
       <c r="AW2">
-        <v>543.3980938416422</v>
+        <v>535.3431192660551</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-25 18:32:19</t>
+    <t>2025-05-26 17:28:57</t>
   </si>
 </sst>
 </file>
@@ -684,16 +684,16 @@
         <v>16229</v>
       </c>
       <c r="C2">
-        <v>11751</v>
+        <v>11756</v>
       </c>
       <c r="D2">
-        <v>72.40741881816501</v>
+        <v>72.43822786370077</v>
       </c>
       <c r="E2">
-        <v>2241</v>
+        <v>2236</v>
       </c>
       <c r="F2">
-        <v>13.8086142091318</v>
+        <v>13.77780516359603</v>
       </c>
       <c r="G2">
         <v>3105</v>
@@ -720,34 +720,34 @@
         <v>1158493.43</v>
       </c>
       <c r="O2">
-        <v>4689</v>
+        <v>4695</v>
       </c>
       <c r="P2">
-        <v>28.89272290344445</v>
+        <v>28.92969375808738</v>
       </c>
       <c r="Q2">
-        <v>494295.3</v>
+        <v>497862.3</v>
       </c>
       <c r="R2">
-        <v>3569</v>
+        <v>3572</v>
       </c>
       <c r="S2">
-        <v>21.99149670343213</v>
+        <v>22.00998213075359</v>
       </c>
       <c r="T2">
-        <v>3435</v>
+        <v>3429</v>
       </c>
       <c r="U2">
-        <v>21.16581428307351</v>
+        <v>21.12884342843059</v>
       </c>
       <c r="V2">
-        <v>2427830.57</v>
+        <v>2424263.57</v>
       </c>
       <c r="W2">
-        <v>2299</v>
+        <v>2296</v>
       </c>
       <c r="X2">
-        <v>14.16599913734672</v>
+        <v>14.14751371002526</v>
       </c>
       <c r="Y2">
         <v>1434</v>
@@ -780,49 +780,49 @@
         <v>34.66535311865033</v>
       </c>
       <c r="AI2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AJ2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AK2">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="AL2">
-        <v>17.74731381993331</v>
+        <v>18.01935964259122</v>
       </c>
       <c r="AM2">
-        <v>32.08595776213413</v>
+        <v>32.12956068503351</v>
       </c>
       <c r="AN2">
-        <v>50.16672841793257</v>
+        <v>49.85107967237528</v>
       </c>
       <c r="AO2">
-        <v>1360191</v>
+        <v>1331527.2</v>
       </c>
       <c r="AP2">
-        <v>255433.51</v>
+        <v>249630.26</v>
       </c>
       <c r="AQ2">
-        <v>85168.91</v>
+        <v>83316.29000000001</v>
       </c>
       <c r="AR2">
-        <v>79.97391005898884</v>
+        <v>79.99688790526135</v>
       </c>
       <c r="AS2">
-        <v>15.01849119336316</v>
+        <v>14.99754862460282</v>
       </c>
       <c r="AT2">
-        <v>5.007598747648025</v>
+        <v>5.005563470135831</v>
       </c>
       <c r="AU2">
-        <v>49.75165717486696</v>
+        <v>50.29909706546275</v>
       </c>
       <c r="AV2">
-        <v>239.0586868099942</v>
+        <v>234.8590021691974</v>
       </c>
       <c r="AW2">
-        <v>535.3431192660551</v>
+        <v>552.6344878408254</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-26 17:28:57</t>
+    <t>2025-05-27 09:03:41</t>
   </si>
 </sst>
 </file>
@@ -681,103 +681,103 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16229</v>
+        <v>16232</v>
       </c>
       <c r="C2">
-        <v>11756</v>
+        <v>11757</v>
       </c>
       <c r="D2">
-        <v>72.43822786370077</v>
+        <v>72.43100049285363</v>
       </c>
       <c r="E2">
-        <v>2236</v>
+        <v>2243</v>
       </c>
       <c r="F2">
-        <v>13.77780516359603</v>
+        <v>13.81838344011828</v>
       </c>
       <c r="G2">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="H2">
-        <v>19.13241727771274</v>
+        <v>19.09807787087235</v>
       </c>
       <c r="I2">
-        <v>9558</v>
+        <v>9560</v>
       </c>
       <c r="J2">
-        <v>58.8945714461766</v>
+        <v>58.89600788565797</v>
       </c>
       <c r="K2">
-        <v>3074903.87</v>
+        <v>3070327.87</v>
       </c>
       <c r="L2">
-        <v>3566</v>
+        <v>3572</v>
       </c>
       <c r="M2">
-        <v>21.97301127611066</v>
+        <v>22.00591424346969</v>
       </c>
       <c r="N2">
-        <v>1158493.43</v>
+        <v>1171245.23</v>
       </c>
       <c r="O2">
-        <v>4695</v>
+        <v>4698</v>
       </c>
       <c r="P2">
-        <v>28.92969375808738</v>
+        <v>28.942828979793</v>
       </c>
       <c r="Q2">
-        <v>497862.3</v>
+        <v>499126.3</v>
       </c>
       <c r="R2">
         <v>3572</v>
       </c>
       <c r="S2">
-        <v>22.00998213075359</v>
+        <v>22.00591424346969</v>
       </c>
       <c r="T2">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="U2">
-        <v>21.12884342843059</v>
+        <v>21.13109906357812</v>
       </c>
       <c r="V2">
-        <v>2424263.57</v>
+        <v>2416583.57</v>
       </c>
       <c r="W2">
-        <v>2296</v>
+        <v>2300</v>
       </c>
       <c r="X2">
-        <v>14.14751371002526</v>
+        <v>14.1695416461311</v>
       </c>
       <c r="Y2">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="Z2">
-        <v>8.836034259658636</v>
+        <v>8.822079842286842</v>
       </c>
       <c r="AA2">
-        <v>152778</v>
+        <v>154618</v>
       </c>
       <c r="AB2">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AC2">
-        <v>4.947932713044549</v>
+        <v>4.928536224741252</v>
       </c>
       <c r="AD2">
-        <v>16241</v>
+        <v>16244</v>
       </c>
       <c r="AE2">
         <v>10611</v>
       </c>
       <c r="AF2">
-        <v>65.33464688134967</v>
+        <v>65.32258064516128</v>
       </c>
       <c r="AG2">
-        <v>5630</v>
+        <v>5633</v>
       </c>
       <c r="AH2">
-        <v>34.66535311865033</v>
+        <v>34.67741935483872</v>
       </c>
       <c r="AI2">
         <v>484</v>
@@ -786,43 +786,43 @@
         <v>863</v>
       </c>
       <c r="AK2">
-        <v>1339</v>
+        <v>1348</v>
       </c>
       <c r="AL2">
-        <v>18.01935964259122</v>
+        <v>17.95918367346939</v>
       </c>
       <c r="AM2">
-        <v>32.12956068503351</v>
+        <v>32.02226345083488</v>
       </c>
       <c r="AN2">
-        <v>49.85107967237528</v>
+        <v>50.01855287569573</v>
       </c>
       <c r="AO2">
-        <v>1331527.2</v>
+        <v>1349074.39</v>
       </c>
       <c r="AP2">
-        <v>249630.26</v>
+        <v>253575.28</v>
       </c>
       <c r="AQ2">
-        <v>83316.29000000001</v>
+        <v>84423.84</v>
       </c>
       <c r="AR2">
-        <v>79.99688790526135</v>
+        <v>79.96535906725249</v>
       </c>
       <c r="AS2">
-        <v>14.99754862460282</v>
+        <v>15.0304819853404</v>
       </c>
       <c r="AT2">
-        <v>5.005563470135831</v>
+        <v>5.004158947407098</v>
       </c>
       <c r="AU2">
-        <v>50.29909706546275</v>
+        <v>46.95067264573991</v>
       </c>
       <c r="AV2">
-        <v>234.8590021691974</v>
+        <v>230.1656394453005</v>
       </c>
       <c r="AW2">
-        <v>552.6344878408254</v>
+        <v>551.4683266202856</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-27 09:03:41</t>
+    <t>2025-05-28 10:00:40</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16232</v>
+        <v>16234</v>
       </c>
       <c r="C2">
-        <v>11757</v>
+        <v>11760</v>
       </c>
       <c r="D2">
-        <v>72.43100049285363</v>
+        <v>72.44055685598127</v>
       </c>
       <c r="E2">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="F2">
-        <v>13.81838344011828</v>
+        <v>13.81052112849575</v>
       </c>
       <c r="G2">
         <v>3100</v>
       </c>
       <c r="H2">
-        <v>19.09807787087235</v>
+        <v>19.09572502155969</v>
       </c>
       <c r="I2">
-        <v>9560</v>
+        <v>9561</v>
       </c>
       <c r="J2">
-        <v>58.89600788565797</v>
+        <v>58.89491191326844</v>
       </c>
       <c r="K2">
-        <v>3070327.87</v>
+        <v>3071549.87</v>
       </c>
       <c r="L2">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="M2">
-        <v>22.00591424346969</v>
+        <v>22.00936306517186</v>
       </c>
       <c r="N2">
         <v>1171245.23</v>
       </c>
       <c r="O2">
-        <v>4698</v>
+        <v>4704</v>
       </c>
       <c r="P2">
-        <v>28.942828979793</v>
+        <v>28.97622274239251</v>
       </c>
       <c r="Q2">
-        <v>499126.3</v>
+        <v>500899.2000000001</v>
       </c>
       <c r="R2">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="S2">
-        <v>22.00591424346969</v>
+        <v>22.00936306517186</v>
       </c>
       <c r="T2">
-        <v>3430</v>
+        <v>3425</v>
       </c>
       <c r="U2">
-        <v>21.13109906357812</v>
+        <v>21.09769619317482</v>
       </c>
       <c r="V2">
-        <v>2416583.57</v>
+        <v>2417577.67</v>
       </c>
       <c r="W2">
         <v>2300</v>
       </c>
       <c r="X2">
-        <v>14.1695416461311</v>
+        <v>14.16779598373784</v>
       </c>
       <c r="Y2">
         <v>1432</v>
       </c>
       <c r="Z2">
-        <v>8.822079842286842</v>
+        <v>8.82099297770112</v>
       </c>
       <c r="AA2">
-        <v>154618</v>
+        <v>153073</v>
       </c>
       <c r="AB2">
         <v>800</v>
       </c>
       <c r="AC2">
-        <v>4.928536224741252</v>
+        <v>4.927929037821856</v>
       </c>
       <c r="AD2">
-        <v>16244</v>
+        <v>16246</v>
       </c>
       <c r="AE2">
-        <v>10611</v>
+        <v>10608</v>
       </c>
       <c r="AF2">
-        <v>65.32258064516128</v>
+        <v>65.29607287947803</v>
       </c>
       <c r="AG2">
-        <v>5633</v>
+        <v>5638</v>
       </c>
       <c r="AH2">
-        <v>34.67741935483872</v>
+        <v>34.70392712052197</v>
       </c>
       <c r="AI2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AJ2">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="AK2">
         <v>1348</v>
       </c>
       <c r="AL2">
-        <v>17.95918367346939</v>
+        <v>18</v>
       </c>
       <c r="AM2">
-        <v>32.02226345083488</v>
+        <v>32.07407407407407</v>
       </c>
       <c r="AN2">
-        <v>50.01855287569573</v>
+        <v>49.92592592592592</v>
       </c>
       <c r="AO2">
-        <v>1349074.39</v>
+        <v>1347480.86</v>
       </c>
       <c r="AP2">
-        <v>253575.28</v>
+        <v>253107.84</v>
       </c>
       <c r="AQ2">
-        <v>84423.84</v>
+        <v>84352.23999999999</v>
       </c>
       <c r="AR2">
-        <v>79.96535906725249</v>
+        <v>79.97199355842109</v>
       </c>
       <c r="AS2">
-        <v>15.0304819853404</v>
+        <v>15.02176331474265</v>
       </c>
       <c r="AT2">
-        <v>5.004158947407098</v>
+        <v>5.006243126836243</v>
       </c>
       <c r="AU2">
-        <v>46.95067264573991</v>
+        <v>50.22925561537033</v>
       </c>
       <c r="AV2">
-        <v>230.1656394453005</v>
+        <v>226.4624119028974</v>
       </c>
       <c r="AW2">
-        <v>551.4683266202856</v>
+        <v>559.5164835164835</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-28 10:00:40</t>
+    <t>2025-05-29 14:04:25</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16234</v>
+        <v>16245</v>
       </c>
       <c r="C2">
-        <v>11760</v>
+        <v>11773</v>
       </c>
       <c r="D2">
-        <v>72.44055685598127</v>
+        <v>72.4715297014466</v>
       </c>
       <c r="E2">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="F2">
-        <v>13.81052112849575</v>
+        <v>13.79501385041551</v>
       </c>
       <c r="G2">
-        <v>3100</v>
+        <v>3106</v>
       </c>
       <c r="H2">
-        <v>19.09572502155969</v>
+        <v>19.11972914742998</v>
       </c>
       <c r="I2">
-        <v>9561</v>
+        <v>9568</v>
       </c>
       <c r="J2">
-        <v>58.89491191326844</v>
+        <v>58.89812249923053</v>
       </c>
       <c r="K2">
-        <v>3071549.87</v>
+        <v>3077475.97</v>
       </c>
       <c r="L2">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="M2">
-        <v>22.00936306517186</v>
+        <v>21.98214835333949</v>
       </c>
       <c r="N2">
-        <v>1171245.23</v>
+        <v>1175948.23</v>
       </c>
       <c r="O2">
-        <v>4704</v>
+        <v>4706</v>
       </c>
       <c r="P2">
-        <v>28.97622274239251</v>
+        <v>28.9689135118498</v>
       </c>
       <c r="Q2">
-        <v>500899.2000000001</v>
+        <v>500724.2</v>
       </c>
       <c r="R2">
-        <v>3573</v>
+        <v>3581</v>
       </c>
       <c r="S2">
-        <v>22.00936306517186</v>
+        <v>22.04370575561711</v>
       </c>
       <c r="T2">
-        <v>3425</v>
+        <v>3433</v>
       </c>
       <c r="U2">
-        <v>21.09769619317482</v>
+        <v>21.13265620190828</v>
       </c>
       <c r="V2">
-        <v>2417577.67</v>
+        <v>2428553.77</v>
       </c>
       <c r="W2">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="X2">
-        <v>14.16779598373784</v>
+        <v>14.12126808248692</v>
       </c>
       <c r="Y2">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="Z2">
-        <v>8.82099297770112</v>
+        <v>8.796552785472453</v>
       </c>
       <c r="AA2">
-        <v>153073</v>
+        <v>148198</v>
       </c>
       <c r="AB2">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AC2">
-        <v>4.927929037821856</v>
+        <v>4.936903662665435</v>
       </c>
       <c r="AD2">
-        <v>16246</v>
+        <v>16257</v>
       </c>
       <c r="AE2">
-        <v>10608</v>
+        <v>10594</v>
       </c>
       <c r="AF2">
-        <v>65.29607287947803</v>
+        <v>65.16577474318755</v>
       </c>
       <c r="AG2">
-        <v>5638</v>
+        <v>5663</v>
       </c>
       <c r="AH2">
-        <v>34.70392712052197</v>
+        <v>34.83422525681245</v>
       </c>
       <c r="AI2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="AJ2">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AK2">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="AL2">
-        <v>18</v>
+        <v>17.99925622908144</v>
       </c>
       <c r="AM2">
-        <v>32.07407407407407</v>
+        <v>32.09371513573819</v>
       </c>
       <c r="AN2">
-        <v>49.92592592592592</v>
+        <v>49.90702863518037</v>
       </c>
       <c r="AO2">
-        <v>1347480.86</v>
+        <v>1336767.49</v>
       </c>
       <c r="AP2">
-        <v>253107.84</v>
+        <v>250756.02</v>
       </c>
       <c r="AQ2">
-        <v>84352.23999999999</v>
+        <v>83676.21000000001</v>
       </c>
       <c r="AR2">
-        <v>79.97199355842109</v>
+        <v>79.98849413402247</v>
       </c>
       <c r="AS2">
-        <v>15.02176331474265</v>
+        <v>15.00455134111679</v>
       </c>
       <c r="AT2">
-        <v>5.006243126836243</v>
+        <v>5.006954524860739</v>
       </c>
       <c r="AU2">
-        <v>50.22925561537033</v>
+        <v>51.09834687587559</v>
       </c>
       <c r="AV2">
-        <v>226.4624119028974</v>
+        <v>229.8472385428907</v>
       </c>
       <c r="AW2">
-        <v>559.5164835164835</v>
+        <v>555.5311218784942</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-29 14:04:25</t>
+    <t>2025-05-30 10:35:30</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16245</v>
+        <v>16251</v>
       </c>
       <c r="C2">
-        <v>11773</v>
+        <v>11783</v>
       </c>
       <c r="D2">
-        <v>72.4715297014466</v>
+        <v>72.5063073041659</v>
       </c>
       <c r="E2">
-        <v>2241</v>
+        <v>2237</v>
       </c>
       <c r="F2">
-        <v>13.79501385041551</v>
+        <v>13.76530675035383</v>
       </c>
       <c r="G2">
         <v>3106</v>
       </c>
       <c r="H2">
-        <v>19.11972914742998</v>
+        <v>19.1126699895391</v>
       </c>
       <c r="I2">
-        <v>9568</v>
+        <v>9569</v>
       </c>
       <c r="J2">
-        <v>58.89812249923053</v>
+        <v>58.88253030582733</v>
       </c>
       <c r="K2">
-        <v>3077475.97</v>
+        <v>3088353.07</v>
       </c>
       <c r="L2">
-        <v>3571</v>
+        <v>3576</v>
       </c>
       <c r="M2">
-        <v>21.98214835333949</v>
+        <v>22.00479970463356</v>
       </c>
       <c r="N2">
-        <v>1175948.23</v>
+        <v>1184662.23</v>
       </c>
       <c r="O2">
         <v>4706</v>
       </c>
       <c r="P2">
-        <v>28.9689135118498</v>
+        <v>28.95821795581811</v>
       </c>
       <c r="Q2">
-        <v>500724.2</v>
+        <v>502454.2</v>
       </c>
       <c r="R2">
-        <v>3581</v>
+        <v>3586</v>
       </c>
       <c r="S2">
-        <v>22.04370575561711</v>
+        <v>22.06633437942281</v>
       </c>
       <c r="T2">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="U2">
-        <v>21.13265620190828</v>
+        <v>21.1063934527106</v>
       </c>
       <c r="V2">
-        <v>2428553.77</v>
+        <v>2430964.87</v>
       </c>
       <c r="W2">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="X2">
-        <v>14.12126808248692</v>
+        <v>14.14066826656821</v>
       </c>
       <c r="Y2">
-        <v>1429</v>
+        <v>1433</v>
       </c>
       <c r="Z2">
-        <v>8.796552785472453</v>
+        <v>8.817918897298629</v>
       </c>
       <c r="AA2">
-        <v>148198</v>
+        <v>154934</v>
       </c>
       <c r="AB2">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="AC2">
-        <v>4.936903662665435</v>
+        <v>4.91046704818165</v>
       </c>
       <c r="AD2">
-        <v>16257</v>
+        <v>16263</v>
       </c>
       <c r="AE2">
-        <v>10594</v>
+        <v>10604</v>
       </c>
       <c r="AF2">
-        <v>65.16577474318755</v>
+        <v>65.20322203775441</v>
       </c>
       <c r="AG2">
-        <v>5663</v>
+        <v>5659</v>
       </c>
       <c r="AH2">
-        <v>34.83422525681245</v>
+        <v>34.79677796224559</v>
       </c>
       <c r="AI2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AJ2">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="AK2">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="AL2">
-        <v>17.99925622908144</v>
+        <v>18.08035714285714</v>
       </c>
       <c r="AM2">
-        <v>32.09371513573819</v>
+        <v>32.14285714285715</v>
       </c>
       <c r="AN2">
-        <v>49.90702863518037</v>
+        <v>49.77678571428572</v>
       </c>
       <c r="AO2">
-        <v>1336767.49</v>
+        <v>1337552.96</v>
       </c>
       <c r="AP2">
-        <v>250756.02</v>
+        <v>251248.74</v>
       </c>
       <c r="AQ2">
-        <v>83676.21000000001</v>
+        <v>83665.06999999999</v>
       </c>
       <c r="AR2">
-        <v>79.98849413402247</v>
+        <v>79.97486012831214</v>
       </c>
       <c r="AS2">
-        <v>15.00455134111679</v>
+        <v>15.02264466516127</v>
       </c>
       <c r="AT2">
-        <v>5.006954524860739</v>
+        <v>5.002495206526584</v>
       </c>
       <c r="AU2">
-        <v>51.09834687587559</v>
+        <v>50.77415167810124</v>
       </c>
       <c r="AV2">
-        <v>229.8472385428907</v>
+        <v>228.8204225352113</v>
       </c>
       <c r="AW2">
-        <v>555.5311218784942</v>
+        <v>558.6183719193427</v>
       </c>
     </row>
   </sheetData>

--- a/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/metricas_analise_estoque.xlsx
@@ -163,7 +163,7 @@
     <t>COBERTURA EM DIAS GRUPO C</t>
   </si>
   <si>
-    <t>2025-05-30 10:35:30</t>
+    <t>2025-06-02 11:43:11</t>
   </si>
 </sst>
 </file>
@@ -681,148 +681,148 @@
         <v>49</v>
       </c>
       <c r="B2">
-        <v>16251</v>
+        <v>16261</v>
       </c>
       <c r="C2">
-        <v>11783</v>
+        <v>11802</v>
       </c>
       <c r="D2">
-        <v>72.5063073041659</v>
+        <v>72.57856220404649</v>
       </c>
       <c r="E2">
-        <v>2237</v>
+        <v>2229</v>
       </c>
       <c r="F2">
-        <v>13.76530675035383</v>
+        <v>13.7076440563311</v>
       </c>
       <c r="G2">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="H2">
-        <v>19.1126699895391</v>
+        <v>19.09476661951909</v>
       </c>
       <c r="I2">
-        <v>9569</v>
+        <v>9579</v>
       </c>
       <c r="J2">
-        <v>58.88253030582733</v>
+        <v>58.90781624746325</v>
       </c>
       <c r="K2">
-        <v>3088353.07</v>
+        <v>3097088.07</v>
       </c>
       <c r="L2">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="M2">
-        <v>22.00479970463356</v>
+        <v>21.99741713301765</v>
       </c>
       <c r="N2">
-        <v>1184662.23</v>
+        <v>1184846.23</v>
       </c>
       <c r="O2">
-        <v>4706</v>
+        <v>4709</v>
       </c>
       <c r="P2">
-        <v>28.95821795581811</v>
+        <v>28.95885861878113</v>
       </c>
       <c r="Q2">
-        <v>502454.2</v>
+        <v>503021.2</v>
       </c>
       <c r="R2">
-        <v>3586</v>
+        <v>3599</v>
       </c>
       <c r="S2">
-        <v>22.06633437942281</v>
+        <v>22.13271016542648</v>
       </c>
       <c r="T2">
-        <v>3430</v>
+        <v>3436</v>
       </c>
       <c r="U2">
-        <v>21.1063934527106</v>
+        <v>21.13031178894287</v>
       </c>
       <c r="V2">
-        <v>2430964.87</v>
+        <v>2435948.87</v>
       </c>
       <c r="W2">
-        <v>2298</v>
+        <v>2287</v>
       </c>
       <c r="X2">
-        <v>14.14066826656821</v>
+        <v>14.06432568722711</v>
       </c>
       <c r="Y2">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="Z2">
-        <v>8.817918897298629</v>
+        <v>8.818645839739252</v>
       </c>
       <c r="AA2">
-        <v>154934</v>
+        <v>158118</v>
       </c>
       <c r="AB2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AC2">
-        <v>4.91046704818165</v>
+        <v>4.895147899883156</v>
       </c>
       <c r="AD2">
-        <v>16263</v>
+        <v>16273</v>
       </c>
       <c r="AE2">
-        <v>10604</v>
+        <v>10583</v>
       </c>
       <c r="AF2">
-        <v>65.20322203775441</v>
+        <v>65.0341055736496</v>
       </c>
       <c r="AG2">
-        <v>5659</v>
+        <v>5690</v>
       </c>
       <c r="AH2">
-        <v>34.79677796224559</v>
+        <v>34.9658944263504</v>
       </c>
       <c r="AI2">
         <v>486</v>
       </c>
       <c r="AJ2">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="AK2">
-        <v>1338</v>
+        <v>1347</v>
       </c>
       <c r="AL2">
-        <v>18.08035714285714</v>
+        <v>18.01334321719792</v>
       </c>
       <c r="AM2">
-        <v>32.14285714285715</v>
+        <v>32.06078576723499</v>
       </c>
       <c r="AN2">
-        <v>49.77678571428572</v>
+        <v>49.92587101556708</v>
       </c>
       <c r="AO2">
-        <v>1337552.96</v>
+        <v>1344375.93</v>
       </c>
       <c r="AP2">
-        <v>251248.74</v>
+        <v>252590.6</v>
       </c>
       <c r="AQ2">
-        <v>83665.06999999999</v>
+        <v>84111.11</v>
       </c>
       <c r="AR2">
-        <v>79.97486012831214</v>
+        <v>79.97107914658837</v>
       </c>
       <c r="AS2">
-        <v>15.02264466516127</v>
+        <v>15.0255166085012</v>
       </c>
       <c r="AT2">
-        <v>5.002495206526584</v>
+        <v>5.003404244910424</v>
       </c>
       <c r="AU2">
-        <v>50.77415167810124</v>
+        <v>53.01585838096995</v>
       </c>
       <c r="AV2">
-        <v>228.8204225352113</v>
+        <v>235.4456415279138</v>
       </c>
       <c r="AW2">
-        <v>558.6183719193427</v>
+        <v>553.3497723823976</v>
       </c>
     </row>
   </sheetData>
